--- a/Code/Results/Cases/Case_9_27/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_27/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.761278657115696</v>
+        <v>0.7288932397181327</v>
       </c>
       <c r="C2">
-        <v>0.1522152936028363</v>
+        <v>0.1566483497650353</v>
       </c>
       <c r="D2">
-        <v>0.07671076779818264</v>
+        <v>0.07929436184159755</v>
       </c>
       <c r="E2">
-        <v>0.3881407099365859</v>
+        <v>0.3883581630803903</v>
       </c>
       <c r="F2">
-        <v>0.4132834520645687</v>
+        <v>0.3933110225083851</v>
       </c>
       <c r="G2">
-        <v>0.3102800556285459</v>
+        <v>0.2727551723427553</v>
       </c>
       <c r="H2">
-        <v>0.0002683235077096668</v>
+        <v>0.0002953670990233359</v>
       </c>
       <c r="I2">
-        <v>0.0004924278651854408</v>
+        <v>0.0006813347713592321</v>
       </c>
       <c r="J2">
-        <v>0.2807205561963642</v>
+        <v>0.3047217854649418</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1435201402972837</v>
       </c>
       <c r="M2">
-        <v>0.7960110552169084</v>
+        <v>0.06167888853717862</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5666013937206387</v>
+        <v>0.7982454872181535</v>
       </c>
       <c r="P2">
-        <v>0.7776160377187509</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.193855562327684</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5675712197471086</v>
+      </c>
+      <c r="R2">
+        <v>0.7654198066215461</v>
+      </c>
+      <c r="S2">
+        <v>1.128729972324763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6630492944927084</v>
+        <v>0.6388730918352792</v>
       </c>
       <c r="C3">
-        <v>0.1416237479369116</v>
+        <v>0.1417288387418978</v>
       </c>
       <c r="D3">
-        <v>0.06821615066993303</v>
+        <v>0.07006760495081465</v>
       </c>
       <c r="E3">
-        <v>0.3428900499196388</v>
+        <v>0.3435080127099468</v>
       </c>
       <c r="F3">
-        <v>0.3914130671140938</v>
+        <v>0.3743536992275196</v>
       </c>
       <c r="G3">
-        <v>0.2970774572805439</v>
+        <v>0.2627600406751256</v>
       </c>
       <c r="H3">
-        <v>1.943726548736535E-05</v>
+        <v>3.097900661930275E-05</v>
       </c>
       <c r="I3">
-        <v>0.0004283799637603281</v>
+        <v>0.000512043168909404</v>
       </c>
       <c r="J3">
-        <v>0.2781637688584766</v>
+        <v>0.3015003758625383</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1479172633042296</v>
       </c>
       <c r="M3">
-        <v>0.6980279368700053</v>
+        <v>0.05945357478478996</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.4937999980415242</v>
+        <v>0.7001572609002977</v>
       </c>
       <c r="P3">
-        <v>0.8027574344626185</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.160263221043223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4947198744264441</v>
+      </c>
+      <c r="R3">
+        <v>0.7881493506887232</v>
+      </c>
+      <c r="S3">
+        <v>1.103273716784557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6023616879531914</v>
+        <v>0.5830759588261003</v>
       </c>
       <c r="C4">
-        <v>0.1351941323771726</v>
+        <v>0.132733084061698</v>
       </c>
       <c r="D4">
-        <v>0.06299958961527352</v>
+        <v>0.06441356520748798</v>
       </c>
       <c r="E4">
-        <v>0.3150700600229897</v>
+        <v>0.315930645894035</v>
       </c>
       <c r="F4">
-        <v>0.3783193748458231</v>
+        <v>0.3629631393904944</v>
       </c>
       <c r="G4">
-        <v>0.2892231529911697</v>
+        <v>0.2568672148509066</v>
       </c>
       <c r="H4">
-        <v>1.037831658390331E-05</v>
+        <v>3.394263011990972E-06</v>
       </c>
       <c r="I4">
-        <v>0.0005272386140022789</v>
+        <v>0.0005249281942973916</v>
       </c>
       <c r="J4">
-        <v>0.2767831978389452</v>
+        <v>0.2995751499285575</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.150716098337476</v>
       </c>
       <c r="M4">
-        <v>0.6377350986858659</v>
+        <v>0.05856458698041145</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4490873132797191</v>
+        <v>0.6397886686831527</v>
       </c>
       <c r="P4">
-        <v>0.8187119954645112</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.140561428864658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4499683560857548</v>
+      </c>
+      <c r="R4">
+        <v>0.8026412472561635</v>
+      </c>
+      <c r="S4">
+        <v>1.088306775283726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5768735763399206</v>
+        <v>0.5595599287976825</v>
       </c>
       <c r="C5">
-        <v>0.1328647321800887</v>
+        <v>0.1294105580258815</v>
       </c>
       <c r="D5">
-        <v>0.06092500044266558</v>
+        <v>0.06216453248688225</v>
       </c>
       <c r="E5">
-        <v>0.3037066602070126</v>
+        <v>0.3046657557055354</v>
       </c>
       <c r="F5">
-        <v>0.372741267099336</v>
+        <v>0.3580665482006964</v>
       </c>
       <c r="G5">
-        <v>0.2857679197731855</v>
+        <v>0.2542241546982353</v>
       </c>
       <c r="H5">
-        <v>4.110416686797791E-05</v>
+        <v>2.43994870698927E-05</v>
       </c>
       <c r="I5">
-        <v>0.0006678430147606385</v>
+        <v>0.0006376395422984515</v>
       </c>
       <c r="J5">
-        <v>0.2761034426875213</v>
+        <v>0.2986379758692763</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1517370158029401</v>
       </c>
       <c r="M5">
-        <v>0.6131639179232025</v>
+        <v>0.05825952189686312</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4308682705218274</v>
+        <v>0.6151849175948882</v>
       </c>
       <c r="P5">
-        <v>0.825296990155242</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.131745876414243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4317317900455535</v>
+      </c>
+      <c r="R5">
+        <v>0.8086587359653823</v>
+      </c>
+      <c r="S5">
+        <v>1.081390819669437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5718244652765918</v>
+        <v>0.5548559641605948</v>
       </c>
       <c r="C6">
-        <v>0.1328158762465534</v>
+        <v>0.1292353302378899</v>
       </c>
       <c r="D6">
-        <v>0.06064411635829003</v>
+        <v>0.06185587741020981</v>
       </c>
       <c r="E6">
-        <v>0.3018010018828079</v>
+        <v>0.3027767752407726</v>
       </c>
       <c r="F6">
-        <v>0.3714254177260656</v>
+        <v>0.3568730171555288</v>
       </c>
       <c r="G6">
-        <v>0.2848130871045882</v>
+        <v>0.2534227954343748</v>
       </c>
       <c r="H6">
-        <v>4.839228523190187E-05</v>
+        <v>2.990886796538916E-05</v>
       </c>
       <c r="I6">
-        <v>0.0007826241165664882</v>
+        <v>0.0007639663740750535</v>
       </c>
       <c r="J6">
-        <v>0.2757935851366256</v>
+        <v>0.2982809350202018</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1517323044219197</v>
       </c>
       <c r="M6">
-        <v>0.6091242719320746</v>
+        <v>0.05813928476848762</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4278527062357824</v>
+        <v>0.6111403227291277</v>
       </c>
       <c r="P6">
-        <v>0.8263462149787841</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.129061305002949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4287132658018962</v>
+      </c>
+      <c r="R6">
+        <v>0.8096434821588296</v>
+      </c>
+      <c r="S6">
+        <v>1.079059983462514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5997951114003683</v>
+        <v>0.5802134125525527</v>
       </c>
       <c r="C7">
-        <v>0.1360852260129306</v>
+        <v>0.1335583635402173</v>
       </c>
       <c r="D7">
-        <v>0.06314604894811993</v>
+        <v>0.06467135060614737</v>
       </c>
       <c r="E7">
-        <v>0.314867953286722</v>
+        <v>0.3157860935600567</v>
       </c>
       <c r="F7">
-        <v>0.3771665701619185</v>
+        <v>0.3612163610884878</v>
       </c>
       <c r="G7">
-        <v>0.2881256741282172</v>
+        <v>0.2581818881333078</v>
       </c>
       <c r="H7">
-        <v>1.085319162696941E-05</v>
+        <v>3.737425729344324E-06</v>
       </c>
       <c r="I7">
-        <v>0.0007582685216869223</v>
+        <v>0.0007984725041243479</v>
       </c>
       <c r="J7">
-        <v>0.2762290737742319</v>
+        <v>0.295551818740492</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1501044072517246</v>
       </c>
       <c r="M7">
-        <v>0.6375206539201201</v>
+        <v>0.05826109237589172</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4488693659700047</v>
+        <v>0.6389960200279319</v>
       </c>
       <c r="P7">
-        <v>0.8186700807347984</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.137072922919174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.449612414041205</v>
+      </c>
+      <c r="R7">
+        <v>0.8026736129834084</v>
+      </c>
+      <c r="S7">
+        <v>1.083015785882267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7245145420303345</v>
+        <v>0.693807702402836</v>
       </c>
       <c r="C8">
-        <v>0.1497838151976083</v>
+        <v>0.1523312489147486</v>
       </c>
       <c r="D8">
-        <v>0.0740150924097378</v>
+        <v>0.0767222154729339</v>
       </c>
       <c r="E8">
-        <v>0.3724801586581705</v>
+        <v>0.3730267619074397</v>
       </c>
       <c r="F8">
-        <v>0.4042450401352227</v>
+        <v>0.3832423772621567</v>
       </c>
       <c r="G8">
-        <v>0.3042842465308979</v>
+        <v>0.2758140169799788</v>
       </c>
       <c r="H8">
-        <v>0.0001506189222137966</v>
+        <v>0.0001725775703460553</v>
       </c>
       <c r="I8">
-        <v>0.0007157031109965573</v>
+        <v>0.000924860587863563</v>
       </c>
       <c r="J8">
-        <v>0.2790817609846314</v>
+        <v>0.2916425837016305</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1439923369253933</v>
       </c>
       <c r="M8">
-        <v>0.762407104625737</v>
+        <v>0.0601670802737253</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5415360435745029</v>
+        <v>0.7626670530155479</v>
       </c>
       <c r="P8">
-        <v>0.786054439661406</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.177627804540805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5420271643038674</v>
+      </c>
+      <c r="R8">
+        <v>0.7732235886964371</v>
+      </c>
+      <c r="S8">
+        <v>1.109113231351444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9701823362797199</v>
+        <v>0.9176856916402869</v>
       </c>
       <c r="C9">
-        <v>0.1756371132083387</v>
+        <v>0.1892308367580711</v>
       </c>
       <c r="D9">
-        <v>0.09503169263688704</v>
+        <v>0.09974302910789845</v>
       </c>
       <c r="E9">
-        <v>0.4853937358819564</v>
+        <v>0.4849734537185739</v>
       </c>
       <c r="F9">
-        <v>0.462126133123661</v>
+        <v>0.432743646127399</v>
       </c>
       <c r="G9">
-        <v>0.3400096750276944</v>
+        <v>0.3056433530693354</v>
       </c>
       <c r="H9">
-        <v>0.001653868563793681</v>
+        <v>0.00165459092297171</v>
       </c>
       <c r="I9">
-        <v>0.001457718391052687</v>
+        <v>0.001742960430071605</v>
       </c>
       <c r="J9">
-        <v>0.2872127967459051</v>
+        <v>0.2975748457780654</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1341043694341515</v>
       </c>
       <c r="M9">
-        <v>1.006229185769797</v>
+        <v>0.06846782015481701</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7232807803863039</v>
+        <v>1.00608412255616</v>
       </c>
       <c r="P9">
-        <v>0.7264931953191311</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.270976138545507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7236974900158657</v>
+      </c>
+      <c r="R9">
+        <v>0.7198344844055953</v>
+      </c>
+      <c r="S9">
+        <v>1.178774927192322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.1483232388712</v>
+        <v>1.077449831661028</v>
       </c>
       <c r="C10">
-        <v>0.1955726475065518</v>
+        <v>0.2165490883003116</v>
       </c>
       <c r="D10">
-        <v>0.1115221066442444</v>
+        <v>0.1184322805925575</v>
       </c>
       <c r="E10">
-        <v>0.5345071340717382</v>
+        <v>0.5337257022838884</v>
       </c>
       <c r="F10">
-        <v>0.5009515195129595</v>
+        <v>0.4618381452114662</v>
       </c>
       <c r="G10">
-        <v>0.362260365376855</v>
+        <v>0.3382957911180284</v>
       </c>
       <c r="H10">
-        <v>0.003586640835682608</v>
+        <v>0.003508754224643251</v>
       </c>
       <c r="I10">
-        <v>0.002912491229140279</v>
+        <v>0.003133032008344472</v>
       </c>
       <c r="J10">
-        <v>0.2914526360175671</v>
+        <v>0.2815220498710218</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1257344781471428</v>
       </c>
       <c r="M10">
-        <v>1.185665618597767</v>
+        <v>0.07506204477835254</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8264863044758499</v>
+        <v>1.181571378754654</v>
       </c>
       <c r="P10">
-        <v>0.6859423222459355</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.327419295633973</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8259434234668177</v>
+      </c>
+      <c r="R10">
+        <v>0.6851265520868814</v>
+      </c>
+      <c r="S10">
+        <v>1.207288610872965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.229812142343008</v>
+        <v>1.152475741002519</v>
       </c>
       <c r="C11">
-        <v>0.20594797270968</v>
+        <v>0.2260581660941625</v>
       </c>
       <c r="D11">
-        <v>0.1276220659524654</v>
+        <v>0.1366494763706498</v>
       </c>
       <c r="E11">
-        <v>0.3050217727208704</v>
+        <v>0.3046838094551916</v>
       </c>
       <c r="F11">
-        <v>0.4727245150651669</v>
+        <v>0.428012003865696</v>
       </c>
       <c r="G11">
-        <v>0.3284295920571196</v>
+        <v>0.3367516509478037</v>
       </c>
       <c r="H11">
-        <v>0.02142422934637267</v>
+        <v>0.02132095249979216</v>
       </c>
       <c r="I11">
-        <v>0.003874196864136259</v>
+        <v>0.004120678856271098</v>
       </c>
       <c r="J11">
-        <v>0.2712563553741347</v>
+        <v>0.2322291101684399</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1140867798074598</v>
       </c>
       <c r="M11">
-        <v>1.272159952303241</v>
+        <v>0.06835136156625055</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6263854601449736</v>
+        <v>1.259770485761123</v>
       </c>
       <c r="P11">
-        <v>0.676653780370831</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.213557500721265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6243289663321079</v>
+      </c>
+      <c r="R11">
+        <v>0.6867683272763685</v>
+      </c>
+      <c r="S11">
+        <v>1.080409405932087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.265034653157898</v>
+        <v>1.187561191253508</v>
       </c>
       <c r="C12">
-        <v>0.2090733097012532</v>
+        <v>0.2271333849661801</v>
       </c>
       <c r="D12">
-        <v>0.1379071701655619</v>
+        <v>0.1478514166478959</v>
       </c>
       <c r="E12">
-        <v>0.1585434197102629</v>
+        <v>0.1582076980400018</v>
       </c>
       <c r="F12">
-        <v>0.4425616928179039</v>
+        <v>0.3976223937227772</v>
       </c>
       <c r="G12">
-        <v>0.2977340267016828</v>
+        <v>0.320725453118186</v>
       </c>
       <c r="H12">
-        <v>0.05949271389780364</v>
+        <v>0.05939310563929467</v>
       </c>
       <c r="I12">
-        <v>0.003975477077198697</v>
+        <v>0.004195998977358784</v>
       </c>
       <c r="J12">
-        <v>0.2544090701016941</v>
+        <v>0.2091015251167221</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1074031365160799</v>
       </c>
       <c r="M12">
-        <v>1.307437075487769</v>
+        <v>0.0622688216383338</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.46092971643737</v>
+        <v>1.29093642801044</v>
       </c>
       <c r="P12">
-        <v>0.6827750705658922</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.113257119805837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4585481562910516</v>
+      </c>
+      <c r="R12">
+        <v>0.7006899708609922</v>
+      </c>
+      <c r="S12">
+        <v>0.9826101532776192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.26283930623427</v>
+        <v>1.191434960915046</v>
       </c>
       <c r="C13">
-        <v>0.208255319103074</v>
+        <v>0.2239382780818033</v>
       </c>
       <c r="D13">
-        <v>0.1444785500531083</v>
+        <v>0.1540167085374122</v>
       </c>
       <c r="E13">
-        <v>0.06688105189979865</v>
+        <v>0.06634348820096569</v>
       </c>
       <c r="F13">
-        <v>0.4074023160720515</v>
+        <v>0.3675398342059779</v>
       </c>
       <c r="G13">
-        <v>0.2659766620689155</v>
+        <v>0.285626122502542</v>
       </c>
       <c r="H13">
-        <v>0.1146610330937676</v>
+        <v>0.1145841331428272</v>
       </c>
       <c r="I13">
-        <v>0.003735190129475541</v>
+        <v>0.003976292488236943</v>
       </c>
       <c r="J13">
-        <v>0.2382526411697441</v>
+        <v>0.2026698162221763</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1032411363517252</v>
       </c>
       <c r="M13">
-        <v>1.305206005961082</v>
+        <v>0.0561611414536074</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3133066858419653</v>
+        <v>1.289337914454592</v>
       </c>
       <c r="P13">
-        <v>0.7000968408009527</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.012079285035099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3114580536942739</v>
+      </c>
+      <c r="R13">
+        <v>0.7220497198395321</v>
+      </c>
+      <c r="S13">
+        <v>0.8987665999500081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.243640763246759</v>
+        <v>1.179282447241206</v>
       </c>
       <c r="C14">
-        <v>0.2062185292399477</v>
+        <v>0.2201168533436686</v>
       </c>
       <c r="D14">
-        <v>0.147457150457015</v>
+        <v>0.1560850959138946</v>
       </c>
       <c r="E14">
-        <v>0.03516949896321986</v>
+        <v>0.0345239937713</v>
       </c>
       <c r="F14">
-        <v>0.3804805117744934</v>
+        <v>0.3462443996737861</v>
       </c>
       <c r="G14">
-        <v>0.2433067119035783</v>
+        <v>0.2539169135305954</v>
       </c>
       <c r="H14">
-        <v>0.1636383400467878</v>
+        <v>0.1635816826213699</v>
       </c>
       <c r="I14">
-        <v>0.003500122269580075</v>
+        <v>0.003788503352535777</v>
       </c>
       <c r="J14">
-        <v>0.2272341405505713</v>
+        <v>0.2039303981361691</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1012256105092426</v>
       </c>
       <c r="M14">
-        <v>1.286694819437173</v>
+        <v>0.05189853928100163</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2222474709942759</v>
+        <v>1.273365816926884</v>
       </c>
       <c r="P14">
-        <v>0.7177537494393249</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9408984484228142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2209802123258591</v>
+      </c>
+      <c r="R14">
+        <v>0.7402109897274016</v>
+      </c>
+      <c r="S14">
+        <v>0.8451229438518766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.229965609775149</v>
+        <v>1.168566510818351</v>
       </c>
       <c r="C15">
-        <v>0.2052739326640705</v>
+        <v>0.2186937261217281</v>
       </c>
       <c r="D15">
-        <v>0.1473985278749836</v>
+        <v>0.1555391078207293</v>
       </c>
       <c r="E15">
-        <v>0.03169909698526707</v>
+        <v>0.03106078176477878</v>
       </c>
       <c r="F15">
-        <v>0.3725131073532992</v>
+        <v>0.3405596284632466</v>
       </c>
       <c r="G15">
-        <v>0.2371524843241133</v>
+        <v>0.2429006713920288</v>
       </c>
       <c r="H15">
-        <v>0.1760172558313542</v>
+        <v>0.1759687327121355</v>
       </c>
       <c r="I15">
-        <v>0.003478196275034762</v>
+        <v>0.003808807868230346</v>
       </c>
       <c r="J15">
-        <v>0.2245097055506804</v>
+        <v>0.2066948150273653</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1010367186214847</v>
       </c>
       <c r="M15">
-        <v>1.274172772721386</v>
+        <v>0.05074725123615131</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2008440774754163</v>
+        <v>1.262360295028515</v>
       </c>
       <c r="P15">
-        <v>0.7238658001908647</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9221179059938294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1997978304167169</v>
+      </c>
+      <c r="R15">
+        <v>0.7455243992663867</v>
+      </c>
+      <c r="S15">
+        <v>0.8330259128946551</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.152099821219366</v>
+        <v>1.101233391976336</v>
       </c>
       <c r="C16">
-        <v>0.1973650176258417</v>
+        <v>0.2097648820595595</v>
       </c>
       <c r="D16">
-        <v>0.1387949577346177</v>
+        <v>0.1447339541197152</v>
       </c>
       <c r="E16">
-        <v>0.03201990079959627</v>
+        <v>0.0316039405683961</v>
       </c>
       <c r="F16">
-        <v>0.3624634301574545</v>
+        <v>0.3382428090924847</v>
       </c>
       <c r="G16">
-        <v>0.2336007273221909</v>
+        <v>0.2176346741675985</v>
       </c>
       <c r="H16">
-        <v>0.1627266779324685</v>
+        <v>0.1627086460805742</v>
       </c>
       <c r="I16">
-        <v>0.002976220032484989</v>
+        <v>0.003399331692958363</v>
       </c>
       <c r="J16">
-        <v>0.2255932389311468</v>
+        <v>0.2310403518140092</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1046089871206792</v>
       </c>
       <c r="M16">
-        <v>1.197121539256898</v>
+        <v>0.05027912236414167</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1912773457015682</v>
+        <v>1.192656793659154</v>
       </c>
       <c r="P16">
-        <v>0.7352289770610199</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9166924997889794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1910103351325283</v>
+      </c>
+      <c r="R16">
+        <v>0.7493500870015026</v>
+      </c>
+      <c r="S16">
+        <v>0.848219618459467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.102607852390065</v>
+        <v>1.055330827608685</v>
       </c>
       <c r="C17">
-        <v>0.1924363109675653</v>
+        <v>0.2047348581407391</v>
       </c>
       <c r="D17">
-        <v>0.1306440122743169</v>
+        <v>0.1356676136976347</v>
       </c>
       <c r="E17">
-        <v>0.04362820006466173</v>
+        <v>0.04330373241763219</v>
       </c>
       <c r="F17">
-        <v>0.3690187451899476</v>
+        <v>0.3471411805287872</v>
       </c>
       <c r="G17">
-        <v>0.2428030441587907</v>
+        <v>0.2172595631155971</v>
       </c>
       <c r="H17">
-        <v>0.1246938034523595</v>
+        <v>0.1246867225005559</v>
       </c>
       <c r="I17">
-        <v>0.002752783121109381</v>
+        <v>0.003216297204857277</v>
       </c>
       <c r="J17">
-        <v>0.2322677500849863</v>
+        <v>0.2482490930757706</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.108637808377134</v>
       </c>
       <c r="M17">
-        <v>1.148002146532775</v>
+        <v>0.05196204646339631</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2292476168295359</v>
+        <v>1.146748057633943</v>
       </c>
       <c r="P17">
-        <v>0.7346624578475343</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.950076592692298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2293346617950078</v>
+      </c>
+      <c r="R17">
+        <v>0.7441461510434308</v>
+      </c>
+      <c r="S17">
+        <v>0.8869301008114263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.073927090734628</v>
+        <v>1.025697955295101</v>
       </c>
       <c r="C18">
-        <v>0.1886970371019885</v>
+        <v>0.2019121867194258</v>
       </c>
       <c r="D18">
-        <v>0.1219473993694891</v>
+        <v>0.1267082543601816</v>
       </c>
       <c r="E18">
-        <v>0.09409916835779342</v>
+        <v>0.09372497422437576</v>
       </c>
       <c r="F18">
-        <v>0.3915780577982986</v>
+        <v>0.3689148083577507</v>
       </c>
       <c r="G18">
-        <v>0.2652897847564901</v>
+        <v>0.2338260309692686</v>
       </c>
       <c r="H18">
-        <v>0.07192581094165007</v>
+        <v>0.07192153608846752</v>
       </c>
       <c r="I18">
-        <v>0.00244803710763275</v>
+        <v>0.002875575676185349</v>
       </c>
       <c r="J18">
-        <v>0.2450613511718416</v>
+        <v>0.264909953026681</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1140867586112684</v>
       </c>
       <c r="M18">
-        <v>1.117242958395053</v>
+        <v>0.0560860042635003</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3252126274292948</v>
+        <v>1.117462346880842</v>
       </c>
       <c r="P18">
-        <v>0.7257721722979191</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.024484903291224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3255380886561383</v>
+      </c>
+      <c r="R18">
+        <v>0.7314533799769833</v>
+      </c>
+      <c r="S18">
+        <v>0.9574490310909169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.059743861264167</v>
+        <v>1.007603035561061</v>
       </c>
       <c r="C19">
-        <v>0.1882058825983535</v>
+        <v>0.2034575159179184</v>
       </c>
       <c r="D19">
-        <v>0.1140544271114408</v>
+        <v>0.1189367582450984</v>
       </c>
       <c r="E19">
-        <v>0.2142283824114557</v>
+        <v>0.2136867003585152</v>
       </c>
       <c r="F19">
-        <v>0.4241514254141237</v>
+        <v>0.3987046771604454</v>
       </c>
       <c r="G19">
-        <v>0.2962490517178651</v>
+        <v>0.2603560705531152</v>
       </c>
       <c r="H19">
-        <v>0.02716037786137093</v>
+        <v>0.02715277849679154</v>
       </c>
       <c r="I19">
-        <v>0.002611926635258222</v>
+        <v>0.003060917117419848</v>
       </c>
       <c r="J19">
-        <v>0.2613804216000162</v>
+        <v>0.2811530055443185</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1200617594437503</v>
       </c>
       <c r="M19">
-        <v>1.103832780930304</v>
+        <v>0.06167483730033041</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.4809590860779593</v>
+        <v>1.10461276069114</v>
       </c>
       <c r="P19">
-        <v>0.7151726391706603</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.124283167840673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4814619578946591</v>
+      </c>
+      <c r="R19">
+        <v>0.7173244596141757</v>
+      </c>
+      <c r="S19">
+        <v>1.047362532047487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.094543073109548</v>
+        <v>1.030262414313881</v>
       </c>
       <c r="C20">
-        <v>0.1933300198985393</v>
+        <v>0.2134209163305201</v>
       </c>
       <c r="D20">
-        <v>0.1077892314855262</v>
+        <v>0.1137099729402138</v>
       </c>
       <c r="E20">
-        <v>0.5200266623406762</v>
+        <v>0.5191371132618556</v>
       </c>
       <c r="F20">
-        <v>0.4870515220679579</v>
+        <v>0.4529617004603779</v>
       </c>
       <c r="G20">
-        <v>0.3528522361801549</v>
+        <v>0.3175520304779766</v>
       </c>
       <c r="H20">
-        <v>0.00298862763349117</v>
+        <v>0.002942371966075719</v>
       </c>
       <c r="I20">
-        <v>0.003191606238085676</v>
+        <v>0.003608358688261148</v>
       </c>
       <c r="J20">
-        <v>0.2884973194709062</v>
+        <v>0.2952853553164587</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1272524852541128</v>
       </c>
       <c r="M20">
-        <v>1.138950846784155</v>
+        <v>0.07254580252901377</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7981926826570955</v>
+        <v>1.138072596293711</v>
       </c>
       <c r="P20">
-        <v>0.6964054768850758</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.301183783236695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.798417029730274</v>
+      </c>
+      <c r="R20">
+        <v>0.6942068437795541</v>
+      </c>
+      <c r="S20">
+        <v>1.196039115714328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.231426911492605</v>
+        <v>1.144232919226312</v>
       </c>
       <c r="C21">
-        <v>0.208305638996336</v>
+        <v>0.2313776511557393</v>
       </c>
       <c r="D21">
-        <v>0.1189426245864666</v>
+        <v>0.128876008571126</v>
       </c>
       <c r="E21">
-        <v>0.6103134679127962</v>
+        <v>0.6102739529757528</v>
       </c>
       <c r="F21">
-        <v>0.5263162609654159</v>
+        <v>0.4717727080338889</v>
       </c>
       <c r="G21">
-        <v>0.3789582037525037</v>
+        <v>0.3999312887925015</v>
       </c>
       <c r="H21">
-        <v>0.004866025501315652</v>
+        <v>0.00469355478195943</v>
       </c>
       <c r="I21">
-        <v>0.004488028357981122</v>
+        <v>0.004717444204150212</v>
       </c>
       <c r="J21">
-        <v>0.2963783832934439</v>
+        <v>0.2353257040953665</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1208102265847018</v>
       </c>
       <c r="M21">
-        <v>1.275751930270303</v>
+        <v>0.07762884412716531</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9248823133344999</v>
+        <v>1.260354047519115</v>
       </c>
       <c r="P21">
-        <v>0.6656963756828116</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.373328582945447</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9215650241300537</v>
+      </c>
+      <c r="R21">
+        <v>0.6687078993762086</v>
+      </c>
+      <c r="S21">
+        <v>1.207052653161583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.323834307240816</v>
+        <v>1.220961105565664</v>
       </c>
       <c r="C22">
-        <v>0.2169244542934479</v>
+        <v>0.2414025656717911</v>
       </c>
       <c r="D22">
-        <v>0.1264810299967962</v>
+        <v>0.1392815680314357</v>
       </c>
       <c r="E22">
-        <v>0.6521834442392418</v>
+        <v>0.6528670082081902</v>
       </c>
       <c r="F22">
-        <v>0.5511938486459087</v>
+        <v>0.4822707434434435</v>
       </c>
       <c r="G22">
-        <v>0.395177387383967</v>
+        <v>0.4614635180000022</v>
       </c>
       <c r="H22">
-        <v>0.006263954344272071</v>
+        <v>0.005988087588148838</v>
       </c>
       <c r="I22">
-        <v>0.005218048473602188</v>
+        <v>0.005213793511670062</v>
       </c>
       <c r="J22">
-        <v>0.3011598575840111</v>
+        <v>0.2020221131030695</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1166270090500205</v>
       </c>
       <c r="M22">
-        <v>1.365306706361707</v>
+        <v>0.08098880273006159</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.992207127681084</v>
+        <v>1.339254117492402</v>
       </c>
       <c r="P22">
-        <v>0.6463781408646447</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.417912544729461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9862627165502715</v>
+      </c>
+      <c r="R22">
+        <v>0.6534485513632617</v>
+      </c>
+      <c r="S22">
+        <v>1.208845996841546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.277251703385531</v>
+        <v>1.183699395563451</v>
       </c>
       <c r="C23">
-        <v>0.2111542544029419</v>
+        <v>0.235145315886669</v>
       </c>
       <c r="D23">
-        <v>0.1222410444748334</v>
+        <v>0.1331702111879451</v>
       </c>
       <c r="E23">
-        <v>0.6298830105865676</v>
+        <v>0.6300009356499885</v>
       </c>
       <c r="F23">
-        <v>0.539138490259873</v>
+        <v>0.4794981634747302</v>
       </c>
       <c r="G23">
-        <v>0.3877161927860726</v>
+        <v>0.4220980809963208</v>
       </c>
       <c r="H23">
-        <v>0.005502945684912164</v>
+        <v>0.00528897043184795</v>
       </c>
       <c r="I23">
-        <v>0.004535579833600423</v>
+        <v>0.004603457261419308</v>
       </c>
       <c r="J23">
-        <v>0.2992144515967823</v>
+        <v>0.2247943962691679</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1194025328175936</v>
       </c>
       <c r="M23">
-        <v>1.317365699588692</v>
+        <v>0.07991234423334248</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9562303549860047</v>
+        <v>1.298623779741462</v>
       </c>
       <c r="P23">
-        <v>0.6566087477331379</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.397921956493434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9520850972817243</v>
+      </c>
+      <c r="R23">
+        <v>0.6609650586116267</v>
+      </c>
+      <c r="S23">
+        <v>1.216423157564293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.096056971658783</v>
+        <v>1.031379543143458</v>
       </c>
       <c r="C24">
-        <v>0.1913674277031276</v>
+        <v>0.2113453882116545</v>
       </c>
       <c r="D24">
-        <v>0.1065582083519772</v>
+        <v>0.112446260342324</v>
       </c>
       <c r="E24">
-        <v>0.545513521233886</v>
+        <v>0.5445906758345345</v>
       </c>
       <c r="F24">
-        <v>0.4924643475016879</v>
+        <v>0.4580760754013937</v>
       </c>
       <c r="G24">
-        <v>0.3582889676630288</v>
+        <v>0.3220890820626181</v>
       </c>
       <c r="H24">
-        <v>0.00301500033235147</v>
+        <v>0.002967337450347274</v>
       </c>
       <c r="I24">
-        <v>0.002741240283488544</v>
+        <v>0.003057764739409663</v>
       </c>
       <c r="J24">
-        <v>0.2913327648423092</v>
+        <v>0.2984470070422205</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.128596140977093</v>
       </c>
       <c r="M24">
-        <v>1.136097948607159</v>
+        <v>0.07380076865010565</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8203079376909415</v>
+        <v>1.135357477293184</v>
       </c>
       <c r="P24">
-        <v>0.6965868029398088</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.318644965963074</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8205661588810997</v>
+      </c>
+      <c r="R24">
+        <v>0.6935522718784792</v>
+      </c>
+      <c r="S24">
+        <v>1.212276369244648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8999264580574504</v>
+        <v>0.8541556835690471</v>
       </c>
       <c r="C25">
-        <v>0.1702872251689627</v>
+        <v>0.1813065711818496</v>
       </c>
       <c r="D25">
-        <v>0.08966371375620241</v>
+        <v>0.09366771254563133</v>
       </c>
       <c r="E25">
-        <v>0.4547573641563289</v>
+        <v>0.4545228455984116</v>
       </c>
       <c r="F25">
-        <v>0.4441878720924421</v>
+        <v>0.4181311634226432</v>
       </c>
       <c r="G25">
-        <v>0.328197255743703</v>
+        <v>0.2921086609503121</v>
       </c>
       <c r="H25">
-        <v>0.001100042067788021</v>
+        <v>0.00111753491347466</v>
       </c>
       <c r="I25">
-        <v>0.001514939840431495</v>
+        <v>0.001887153162213551</v>
       </c>
       <c r="J25">
-        <v>0.2838630109714586</v>
+        <v>0.2997165040716752</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1362306155408213</v>
       </c>
       <c r="M25">
-        <v>0.940548883929921</v>
+        <v>0.06541539208728686</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.674127987141766</v>
+        <v>0.9413785938342301</v>
       </c>
       <c r="P25">
-        <v>0.7420543389997274</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.238766615807265</v>
+        <v>0.6747782492125154</v>
+      </c>
+      <c r="R25">
+        <v>0.7338700727902214</v>
+      </c>
+      <c r="S25">
+        <v>1.156286567010056</v>
       </c>
     </row>
   </sheetData>
